--- a/biology/Médecine/Fissure_orbitaire_supérieure/Fissure_orbitaire_supérieure.xlsx
+++ b/biology/Médecine/Fissure_orbitaire_supérieure/Fissure_orbitaire_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fissure_orbitaire_sup%C3%A9rieure</t>
+          <t>Fissure_orbitaire_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fissure orbitaire supérieure (ou fente sphénoïdale) est un canal situé dans la cavité orbitaire entre la petite et la grande aile de l'os sphénoïde. Elle fait communiquer la cavité orbitaire et la fosse crânienne moyenne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fissure_orbitaire_sup%C3%A9rieure</t>
+          <t>Fissure_orbitaire_supérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La fissure orbitaire supérieure est limitée :
 en haut : par la face inférieure de la petite aile du sphénoïde ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fissure_orbitaire_sup%C3%A9rieure</t>
+          <t>Fissure_orbitaire_supérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un anneau tendineux : l'anneau de Zinn occupe la partie médiale antérieure de la fissure orbitaire supérieure. Il donne insertion à des muscles oculo-moteurs : les muscles droits supérieur, inférieur, latéral et médial de l’œil.
 Dans l'anneau de Zinn passent :
